--- a/00 Attachments/Presupuesto Maestro Fase Financiera Formato.xlsx
+++ b/00 Attachments/Presupuesto Maestro Fase Financiera Formato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pca20\git\apuntes_url\00 Attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA6EF5-D57C-44FD-B6A9-F96ED291C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1D58E-9BA7-4CDD-BCF0-8160ECF8E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0AB4F682-C052-4490-ACA7-886A7C1A48F2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Utilidad en Operación</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Balance General Presupuestado al 31 de diciembre de 2025</t>
+  </si>
+  <si>
+    <t>Incremento del activo por la gestión del año que estamos proyectando</t>
   </si>
 </sst>
 </file>
@@ -263,13 +266,67 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="10">
+          <cell r="F10">
+            <v>50000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>900000</v>
+          </cell>
+        </row>
         <row r="56">
           <cell r="C56">
             <v>39242</v>
           </cell>
         </row>
+        <row r="75">
+          <cell r="D75">
+            <v>758700</v>
+          </cell>
+          <cell r="G75">
+            <v>2000000</v>
+          </cell>
+          <cell r="J75">
+            <v>687500</v>
+          </cell>
+          <cell r="M75">
+            <v>100000</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="D76">
+            <v>70790</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82">
+            <v>7220000</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
+        <row r="57">
+          <cell r="C57">
+            <v>78000</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>50000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>150600</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>90600</v>
+          </cell>
+        </row>
         <row r="82">
           <cell r="C82">
             <v>1345200</v>
@@ -578,16 +635,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B63FEDD-B71D-43F7-B9E0-D6FCA9C00D0B}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +767,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <f>+[1]Hoja1!$F$10</f>
+        <v>50000</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,7 +778,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f>+[1]Hoja1!$G$82*0.1</f>
+        <v>722000</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -725,7 +789,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f>+SUM([1]Hoja2!$C$59:$C$60)</f>
+        <v>241200</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -733,18 +800,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <f>SUM([1]Hoja2!$C$57:$C$58)</f>
+        <v>128000</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <f>SUM(C13:C16)</f>
+        <v>1141200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
@@ -752,47 +825,65 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <f>+[1]Hoja1!$D$75</f>
+        <v>758700</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <f>+[1]Hoja1!$G$75</f>
+        <v>2000000</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2">
+        <f>+[1]Hoja1!$J$75</f>
+        <v>687500</v>
+      </c>
+      <c r="C21" s="2">
+        <f>+B20-B21</f>
+        <v>1312500</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="1">
+        <f>+SUM(C19:C21)</f>
+        <v>2071200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <f>+SUM(D22,D17)</f>
+        <v>3212400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
@@ -800,7 +891,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -808,63 +899,87 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <f>+[1]Hoja1!$D$76</f>
+        <v>70790</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <f>+[1]Hoja1!$M$75</f>
+        <v>100000</v>
+      </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f>+D5</f>
+        <v>326489.5</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="5">
+        <f>+SUM(C26:C28)</f>
+        <v>497279.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7">
+        <f>+[1]Hoja1!$F$26</f>
+        <v>900000</v>
+      </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7">
+        <f>+D23-D29-C31-C33-C34</f>
+        <v>835652</v>
+      </c>
       <c r="D32" s="7"/>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7">
+        <f>+D6</f>
+        <v>48973.425000000003</v>
+      </c>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +987,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8">
+        <f>+D7</f>
+        <v>930495.07499999995</v>
+      </c>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,7 +999,10 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7">
+        <f>+SUM(C31:C34)</f>
+        <v>2715120.5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -889,7 +1010,10 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9">
+        <f>+SUM(D35,D29)</f>
+        <v>3212400</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
